--- a/__TESTY/zk05mathPrenos/PřenosRCaRL-vzor.xlsx
+++ b/__TESTY/zk05mathPrenos/PřenosRCaRL-vzor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sseUcivo\C# wfa\15 ListViewZkPrenosRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Šimon Frőmel\Desktop\Repositories\Programming_Csharp2\__TESTY\zk05mathPrenos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5681F564-27CD-4A1A-B259-44C401969EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A72820-94FF-4A71-83EF-87E0B0D6CA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="540" windowWidth="25455" windowHeight="20280" xr2:uid="{C00ECF5A-B9D9-48BE-8A6A-040874B2E952}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C00ECF5A-B9D9-48BE-8A6A-040874B2E952}"/>
   </bookViews>
   <sheets>
     <sheet name="RC int" sheetId="5" r:id="rId1"/>
@@ -401,12 +401,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
-    <numFmt numFmtId="173" formatCode="0E+00"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="0E+00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -534,16 +534,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,7 +559,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,25 +576,25 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -604,7 +604,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -614,28 +614,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2386,112 +2386,112 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>2.5266187266788759E-17</c:v>
+                  <c:v>9.8696044009919495E-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5266187202950745E-9</c:v>
+                  <c:v>9.8598730963987192E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0106474804574672E-8</c:v>
+                  <c:v>3.9323175928274836E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3165464177095782E-8</c:v>
+                  <c:v>2.4079864169266819E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5266180882988178E-7</c:v>
+                  <c:v>8.9830162353724652E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0106464692642324E-6</c:v>
+                  <c:v>0.28304319967510216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3165069181855243E-6</c:v>
+                  <c:v>0.71159956085799903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5265548902698789E-5</c:v>
+                  <c:v>0.90800033164962479</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0105453601583053E-4</c:v>
+                  <c:v>0.97529547696814234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.312559458961618E-4</c:v>
+                  <c:v>0.99596351192429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5202510132728098E-3</c:v>
+                  <c:v>0.99898781372269341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0005356027094915E-2</c:v>
+                  <c:v>0.99974676118703487</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9412640890111799E-2</c:v>
+                  <c:v>0.99995947316903366</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.20169997840660284</c:v>
+                  <c:v>0.99998986798429457</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29922844727315018</c:v>
+                  <c:v>0.99999400469963362</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39276702728291235</c:v>
+                  <c:v>0.9999960421569285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45013386881048512</c:v>
+                  <c:v>0.99999687281275329</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50025354294288715</c:v>
+                  <c:v>0.50025354294288737</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50264777657967141</c:v>
+                  <c:v>0.99999746697682512</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.55013386157012578</c:v>
+                  <c:v>0.99999790659149723</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.61227336326084869</c:v>
+                  <c:v>0.99999837886368981</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.69455920019994144</c:v>
+                  <c:v>0.99999887421033806</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8633235015023909</c:v>
+                  <c:v>0.99999959471542965</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96192823915237935</c:v>
+                  <c:v>0.99999989867882666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99020229796144377</c:v>
+                  <c:v>0.99999997466970469</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99841935888728306</c:v>
+                  <c:v>0.99999999594715272</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99960437071088093</c:v>
+                  <c:v>0.99999999898678815</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99990106332103423</c:v>
+                  <c:v>0.99999999974669707</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9999841688156863</c:v>
+                  <c:v>0.99999999995947153</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9999960421569285</c:v>
+                  <c:v>0.99999999998986788</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99999901053629503</c:v>
+                  <c:v>0.99999999999746692</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99999984168567557</c:v>
+                  <c:v>0.99999999999959477</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.99999996042141426</c:v>
+                  <c:v>0.99999999999989864</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99999999010535323</c:v>
+                  <c:v>0.99999999999997469</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.99999999841685649</c:v>
+                  <c:v>0.99999999999999589</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.99999999960421415</c:v>
+                  <c:v>0.999999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,112 +2503,112 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>5.0265482457436694E-9</c:v>
+                  <c:v>3.1415926535587868E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0265482330434992E-5</c:v>
+                  <c:v>3.1384950831012962E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0053096389885972E-4</c:v>
+                  <c:v>6.2584778270571698E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5132739641197082E-4</c:v>
+                  <c:v>0.1532971764608092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0265469757268977E-4</c:v>
+                  <c:v>0.28593828754685535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0053086331360866E-3</c:v>
+                  <c:v>0.45047724336838857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5132582477584505E-3</c:v>
+                  <c:v>0.45301835045029021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0264212472431553E-3</c:v>
+                  <c:v>0.28902548222223623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0052080580485871E-2</c:v>
+                  <c:v>0.15522309613464763</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5116876036381047E-2</c:v>
+                  <c:v>6.3405006424765847E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0138800824340697E-2</c:v>
+                  <c:v>3.179876972850644E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9525116819152701E-2</c:v>
+                  <c:v>1.5911463888302921E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23639538699512394</c:v>
+                  <c:v>6.3659397218567681E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4012693573117424</c:v>
+                  <c:v>3.1830666106302465E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.45792006247340783</c:v>
+                  <c:v>2.4485229063108726E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48836573340300637</c:v>
+                  <c:v>1.9894289147700818E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49750715468241263</c:v>
+                  <c:v>1.7683827264954118E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.49999993571597195</c:v>
+                  <c:v>0.49999993571597207</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.49999298923003332</c:v>
+                  <c:v>1.5915453994873609E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49748024676771591</c:v>
+                  <c:v>1.4468600901416748E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.48723166143231861</c:v>
+                  <c:v>1.2732374806403051E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.46059387492405834</c:v>
+                  <c:v>1.0610317594460384E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.34350550687877207</c:v>
+                  <c:v>6.3661951435541042E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19136954270098</c:v>
+                  <c:v>3.183098539322595E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.849724398844846E-2</c:v>
+                  <c:v>1.5915493906045364E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.9725844061388037E-2</c:v>
+                  <c:v>6.3661976978745855E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9886497091862514E-2</c:v>
+                  <c:v>3.1830988586127536E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.9461998018990517E-3</c:v>
+                  <c:v>1.5915494305158091E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.9788105870164191E-3</c:v>
+                  <c:v>6.3661977234178011E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9894289147700814E-3</c:v>
+                  <c:v>3.183098861805655E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.9471741008659771E-4</c:v>
+                  <c:v>1.5915494309149219E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.978872947384701E-4</c:v>
+                  <c:v>6.3661977236732337E-7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9894367099095972E-4</c:v>
+                  <c:v>3.1830988618375846E-7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9471838448195879E-5</c:v>
+                  <c:v>1.5915494309189133E-7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.9788735709982545E-5</c:v>
+                  <c:v>6.3661977236757872E-8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.9894367878613002E-5</c:v>
+                  <c:v>3.1830988618379035E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +2949,7 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19904.458598726109</c:v>
+                  <c:v>31.847133757961778</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20000</c:v>
@@ -2982,76 +2982,76 @@
                 <c:formatCode>0.0E+00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-85.974602903971785</c:v>
+                  <c:v>-30.061286747026472</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-79.954003023611065</c:v>
+                  <c:v>-24.053514137182276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-71.995203080602593</c:v>
+                  <c:v>-16.183459671942909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-65.974603990295265</c:v>
+                  <c:v>-10.465778154000844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-59.954007368903262</c:v>
+                  <c:v>-5.4814727490429869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-51.995230238606077</c:v>
+                  <c:v>-1.4776432859964519</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-45.974712621269717</c:v>
+                  <c:v>-0.41913992851628878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-39.95444187616944</c:v>
+                  <c:v>-0.10863789864321807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.997945181679647</c:v>
+                  <c:v>-1.7565720785198354E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25.985562019762796</c:v>
+                  <c:v>-4.3980953705002697E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-19.997674529696276</c:v>
+                  <c:v>-1.0999414705602853E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-12.261211428175207</c:v>
+                  <c:v>-1.7600935715184984E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.9529414828150191</c:v>
+                  <c:v>-4.4003008033814247E-5</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00000">
-                  <c:v>-5.2399712101321603</c:v>
+                  <c:v>-2.6037336716534878E-5</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00000">
-                  <c:v>-4.0586497829380193</c:v>
+                  <c:v>-1.7188728077354363E-5</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00000">
-                  <c:v>-3.4665830880308435</c:v>
+                  <c:v>-1.3581222887220424E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.0080982687946327</c:v>
+                  <c:v>-3.00809826879463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.9873623417005444</c:v>
+                  <c:v>-1.1000793806930447E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00000">
-                  <c:v>-2.5953162274618014</c:v>
+                  <c:v>-9.0915671273007435E-6</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00000">
-                  <c:v>-2.1305463398327835</c:v>
+                  <c:v>-7.0405112456677345E-6</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00000">
-                  <c:v>-1.582907316046497</c:v>
+                  <c:v>-4.8892451317937453E-6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.63826436508185269</c:v>
+                  <c:v>-1.7601288817672153E-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.16857325574029869</c:v>
+                  <c:v>-4.4003228705235239E-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.2760701366124469E-2</c:v>
+                  <c:v>-1.1000807594131406E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,7 +3393,7 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19904.458598726109</c:v>
+                  <c:v>31.847133757961778</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20000</c:v>
@@ -3459,112 +3459,112 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>89.99999971199999</c:v>
+                  <c:v>89.99982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.997120000002425</c:v>
+                  <c:v>88.200591825838373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.994240000019403</c:v>
+                  <c:v>86.404726220131835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.985600000303208</c:v>
+                  <c:v>81.072945131040072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.971200002425547</c:v>
+                  <c:v>72.559405509488144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89.942400019404431</c:v>
+                  <c:v>57.858092364657942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.856000303193099</c:v>
+                  <c:v>32.481636590529753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.712002425517213</c:v>
+                  <c:v>17.656787151412857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.424019403255244</c:v>
+                  <c:v>9.04306107903769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88.560303079390579</c:v>
+                  <c:v>3.6426468877225746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.122421883530649</c:v>
+                  <c:v>1.823165720814139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.259287608378798</c:v>
+                  <c:v>0.91181366961382948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.892197628409875</c:v>
+                  <c:v>0.3647513335607569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.313389897784695</c:v>
+                  <c:v>0.18237751460101728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56.837340476554466</c:v>
+                  <c:v>0.14029058929598176</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.192098696281832</c:v>
+                  <c:v>0.1139861812173877</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.861876584290201</c:v>
+                  <c:v>0.10132107802543457</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44.985473058824667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.848292867834715</c:v>
+                  <c:v>9.1188988283354117E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.122706315489388</c:v>
+                  <c:v>8.2899092405511396E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.511887253966577</c:v>
+                  <c:v>7.2951212801149676E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.550172590822321</c:v>
+                  <c:v>6.0792687372124177E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.696983971540053</c:v>
+                  <c:v>3.6475621183571311E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.251725724946702</c:v>
+                  <c:v>1.82378124396619E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.6806298194676073</c:v>
+                  <c:v>9.1189064508155337E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2785247286219956</c:v>
+                  <c:v>3.6475626061964871E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1397129710778837</c:v>
+                  <c:v>1.8237813049461213E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.56991286152911402</c:v>
+                  <c:v>9.1189065270404484E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.22797146016189188</c:v>
+                  <c:v>3.6475626110748832E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11398618121738768</c:v>
+                  <c:v>1.8237813055559205E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.6993147001251208E-2</c:v>
+                  <c:v>9.1189065278027013E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2797265116481322E-2</c:v>
+                  <c:v>3.6475626111236674E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1398633009382403E-2</c:v>
+                  <c:v>1.8237813055620184E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.6993165610839253E-3</c:v>
+                  <c:v>9.1189065278103239E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2797266307495547E-3</c:v>
+                  <c:v>3.6475626111241552E-6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1398633158259191E-3</c:v>
+                  <c:v>1.8237813055620791E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,21 +5183,21 @@
   </sheetPr>
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:D10"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="37" width="12.375" customWidth="1"/>
-    <col min="38" max="38" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="37" width="12.3984375" customWidth="1"/>
+    <col min="38" max="38" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
         <v>39</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>27</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <f>1/(2*3.14*E6)</f>
         <v>19904.458598726109</v>
@@ -5271,7 +5271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="27">
         <f>B6/1000</f>
@@ -5289,10 +5289,10 @@
       </c>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -5314,16 +5314,16 @@
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>1</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>31</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>6283185307.1795864</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5608,7 +5608,7 @@
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>3.9578587344623527E-10</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>5</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>-1.9894367878613002E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5929,7 +5929,7 @@
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>-94.025397108720057</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>-89.998860136684186</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6247,7 +6247,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6267,7 +6267,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>34</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6310,7 +6310,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>35</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6354,7 +6354,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -6374,7 +6374,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -6394,7 +6394,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -6414,7 +6414,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -6434,7 +6434,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -6454,7 +6454,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -6474,7 +6474,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -6494,7 +6494,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -6514,7 +6514,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -6534,7 +6534,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -6554,7 +6554,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -6574,7 +6574,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -6594,7 +6594,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -6614,7 +6614,7 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -6634,7 +6634,7 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -6654,7 +6654,7 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -6674,32 +6674,32 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -6719,7 +6719,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6739,7 +6739,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -6759,7 +6759,7 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -6779,7 +6779,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -6799,7 +6799,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6820,7 +6820,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6841,7 +6841,7 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6862,11 +6862,11 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -6878,49 +6878,49 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="1"/>
     </row>
@@ -6944,33 +6944,19 @@
   </sheetPr>
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:E10"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
@@ -6978,12 +6964,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="45">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>19</v>
@@ -6998,14 +6984,13 @@
         <v>21</v>
       </c>
       <c r="H2" s="16">
-        <f>F2/1000000</f>
-        <v>1.0000000000000001E-7</v>
+        <v>1E-4</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -7014,7 +6999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>27</v>
       </c>
@@ -7028,27 +7013,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="25">
         <f>1/(2*3.14*F6)</f>
-        <v>19904.458598726109</v>
+        <v>31.847133757961778</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="25">
         <f>C2*H2</f>
-        <v>8.0000000000000013E-6</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="27">
         <f>B6/1000</f>
-        <v>19.904458598726109</v>
+        <v>3.1847133757961776E-2</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>26</v>
@@ -7056,16 +7041,16 @@
       <c r="E7" s="25"/>
       <c r="F7" s="28">
         <f>F6*1000000</f>
-        <v>8.0000000000000018</v>
+        <v>5000</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
@@ -7078,7 +7063,7 @@
       </c>
       <c r="E9" s="49"/>
     </row>
-    <row r="10" spans="1:37" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -7089,16 +7074,16 @@
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>1</v>
       </c>
@@ -7155,7 +7140,7 @@
       </c>
       <c r="S13" s="32">
         <f>B6</f>
-        <v>19904.458598726109</v>
+        <v>31.847133757961778</v>
       </c>
       <c r="T13" s="26">
         <v>20000</v>
@@ -7212,7 +7197,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>31</v>
       </c>
@@ -7286,7 +7271,7 @@
       </c>
       <c r="S14" s="33">
         <f t="shared" si="0"/>
-        <v>125063.40181488026</v>
+        <v>200.10144290380845</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="0"/>
@@ -7361,7 +7346,7 @@
         <v>6283185307.1795864</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -7383,305 +7368,305 @@
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" ref="B16:AK16" si="1">POWER(B14*$F$6,2)/(1+POWER(B14*$F$6,2))</f>
-        <v>2.5266187266788759E-17</v>
+        <v>9.8696044009919495E-12</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="1"/>
-        <v>2.5266187202950745E-9</v>
+        <v>9.8598730963987192E-4</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="1"/>
-        <v>1.0106474804574672E-8</v>
+        <v>3.9323175928274836E-3</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="1"/>
-        <v>6.3165464177095782E-8</v>
+        <v>2.4079864169266819E-2</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="1"/>
-        <v>2.5266180882988178E-7</v>
+        <v>8.9830162353724652E-2</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="1"/>
-        <v>1.0106464692642324E-6</v>
+        <v>0.28304319967510216</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>6.3165069181855243E-6</v>
+        <v>0.71159956085799903</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="1"/>
-        <v>2.5265548902698789E-5</v>
+        <f>POWER(I14*$F$6,2)/(1+POWER(I14*$F$6,2))</f>
+        <v>0.90800033164962479</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="1"/>
-        <v>1.0105453601583053E-4</v>
+        <v>0.97529547696814234</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="1"/>
-        <v>6.312559458961618E-4</v>
+        <v>0.99596351192429</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="1"/>
-        <v>2.5202510132728098E-3</v>
+        <v>0.99898781372269341</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="1"/>
-        <v>1.0005356027094915E-2</v>
+        <v>0.99974676118703487</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="1"/>
-        <v>5.9412640890111799E-2</v>
+        <v>0.99995947316903366</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="1"/>
-        <v>0.20169997840660284</v>
+        <v>0.99998986798429457</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="1"/>
-        <v>0.29922844727315018</v>
+        <v>0.99999400469963362</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="1"/>
-        <v>0.39276702728291235</v>
+        <v>0.9999960421569285</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="1"/>
-        <v>0.45013386881048512</v>
+        <v>0.99999687281275329</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="1"/>
-        <v>0.50025354294288715</v>
+        <v>0.50025354294288737</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>0.50264777657967141</v>
+        <v>0.99999746697682512</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="1"/>
-        <v>0.55013386157012578</v>
+        <v>0.99999790659149723</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="1"/>
-        <v>0.61227336326084869</v>
+        <v>0.99999837886368981</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="1"/>
-        <v>0.69455920019994144</v>
+        <v>0.99999887421033806</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="1"/>
-        <v>0.8633235015023909</v>
+        <v>0.99999959471542965</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="1"/>
-        <v>0.96192823915237935</v>
+        <v>0.99999989867882666</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99020229796144377</v>
+        <v>0.99999997466970469</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99841935888728306</v>
+        <v>0.99999999594715272</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99960437071088093</v>
+        <v>0.99999999898678815</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99990106332103423</v>
+        <v>0.99999999974669707</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="1"/>
-        <v>0.9999841688156863</v>
+        <v>0.99999999995947153</v>
       </c>
       <c r="AE16" s="8">
         <f t="shared" si="1"/>
-        <v>0.9999960421569285</v>
+        <v>0.99999999998986788</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99999901053629503</v>
+        <v>0.99999999999746692</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99999984168567557</v>
+        <v>0.99999999999959477</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99999996042141426</v>
+        <v>0.99999999999989864</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99999999010535323</v>
+        <v>0.99999999999997469</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99999999841685649</v>
+        <v>0.99999999999999589</v>
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="1"/>
-        <v>0.99999999960421415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="8">
         <f t="shared" ref="B17:AK17" si="2">(B14*$F$6)/(1+POWER(B14*$F$6,2))</f>
-        <v>5.0265482457436694E-9</v>
+        <v>3.1415926535587868E-6</v>
       </c>
       <c r="C17" s="8">
         <f t="shared" si="2"/>
-        <v>5.0265482330434992E-5</v>
+        <v>3.1384950831012962E-2</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="2"/>
-        <v>1.0053096389885972E-4</v>
+        <v>6.2584778270571698E-2</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="2"/>
-        <v>2.5132739641197082E-4</v>
+        <v>0.1532971764608092</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="2"/>
-        <v>5.0265469757268977E-4</v>
+        <v>0.28593828754685535</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>1.0053086331360866E-3</v>
+        <v>0.45047724336838857</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
-        <v>2.5132582477584505E-3</v>
+        <v>0.45301835045029021</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>5.0264212472431553E-3</v>
+        <v>0.28902548222223623</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="2"/>
-        <v>1.0052080580485871E-2</v>
+        <v>0.15522309613464763</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="2"/>
-        <v>2.5116876036381047E-2</v>
+        <v>6.3405006424765847E-2</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="2"/>
-        <v>5.0138800824340697E-2</v>
+        <v>3.179876972850644E-2</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="2"/>
-        <v>9.9525116819152701E-2</v>
+        <v>1.5911463888302921E-2</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="2"/>
-        <v>0.23639538699512394</v>
+        <v>6.3659397218567681E-3</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="2"/>
-        <v>0.4012693573117424</v>
+        <v>3.1830666106302465E-3</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="2"/>
-        <v>0.45792006247340783</v>
+        <v>2.4485229063108726E-3</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="2"/>
-        <v>0.48836573340300637</v>
+        <v>1.9894289147700818E-3</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="2"/>
-        <v>0.49750715468241263</v>
+        <v>1.7683827264954118E-3</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="2"/>
-        <v>0.49999993571597195</v>
+        <v>0.49999993571597207</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="2"/>
-        <v>0.49999298923003332</v>
+        <v>1.5915453994873609E-3</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>0.49748024676771591</v>
+        <v>1.4468600901416748E-3</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>0.48723166143231861</v>
+        <v>1.2732374806403051E-3</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="2"/>
-        <v>0.46059387492405834</v>
+        <v>1.0610317594460384E-3</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="2"/>
-        <v>0.34350550687877207</v>
+        <v>6.3661951435541042E-4</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="2"/>
-        <v>0.19136954270098</v>
+        <v>3.183098539322595E-4</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" si="2"/>
-        <v>9.849724398844846E-2</v>
+        <v>1.5915493906045364E-4</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" si="2"/>
-        <v>3.9725844061388037E-2</v>
+        <v>6.3661976978745855E-5</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="2"/>
-        <v>1.9886497091862514E-2</v>
+        <v>3.1830988586127536E-5</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" si="2"/>
-        <v>9.9461998018990517E-3</v>
+        <v>1.5915494305158091E-5</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="2"/>
-        <v>3.9788105870164191E-3</v>
+        <v>6.3661977234178011E-6</v>
       </c>
       <c r="AE17" s="8">
         <f t="shared" si="2"/>
-        <v>1.9894289147700814E-3</v>
+        <v>3.183098861805655E-6</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="2"/>
-        <v>9.9471741008659771E-4</v>
+        <v>1.5915494309149219E-6</v>
       </c>
       <c r="AG17" s="8">
         <f t="shared" si="2"/>
-        <v>3.978872947384701E-4</v>
+        <v>6.3661977236732337E-7</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="2"/>
-        <v>1.9894367099095972E-4</v>
+        <v>3.1830988618375846E-7</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="2"/>
-        <v>9.9471838448195879E-5</v>
+        <v>1.5915494309189133E-7</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="2"/>
-        <v>3.9788735709982545E-5</v>
+        <v>6.3661977236757872E-8</v>
       </c>
       <c r="AK17" s="8">
         <f t="shared" si="2"/>
-        <v>1.9894367878613002E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+        <v>3.1830988618379035E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -7704,226 +7689,226 @@
       <c r="V18" s="40"/>
       <c r="W18" s="40"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="31">
         <f t="shared" ref="B19:AK19" si="3">20*LOG10(SQRT((POWER(B16,2))+(POWER(B17,2))))</f>
-        <v>-165.9746028929988</v>
+        <v>-110.05700254616018</v>
       </c>
       <c r="C19" s="31">
         <f t="shared" si="3"/>
-        <v>-85.974602903971785</v>
+        <v>-30.061286747026472</v>
       </c>
       <c r="D19" s="31">
         <f t="shared" si="3"/>
-        <v>-79.954003023611065</v>
+        <v>-24.053514137182276</v>
       </c>
       <c r="E19" s="31">
         <f t="shared" si="3"/>
-        <v>-71.995203080602593</v>
+        <v>-16.183459671942909</v>
       </c>
       <c r="F19" s="31">
         <f t="shared" si="3"/>
-        <v>-65.974603990295265</v>
+        <v>-10.465778154000844</v>
       </c>
       <c r="G19" s="31">
         <f t="shared" si="3"/>
-        <v>-59.954007368903262</v>
+        <v>-5.4814727490429869</v>
       </c>
       <c r="H19" s="31">
         <f t="shared" si="3"/>
-        <v>-51.995230238606077</v>
+        <v>-1.4776432859964519</v>
       </c>
       <c r="I19" s="31">
         <f t="shared" si="3"/>
-        <v>-45.974712621269717</v>
+        <v>-0.41913992851628878</v>
       </c>
       <c r="J19" s="31">
         <f t="shared" si="3"/>
-        <v>-39.95444187616944</v>
+        <v>-0.10863789864321807</v>
       </c>
       <c r="K19" s="31">
         <f t="shared" si="3"/>
-        <v>-31.997945181679647</v>
+        <v>-1.7565720785198354E-2</v>
       </c>
       <c r="L19" s="31">
         <f t="shared" si="3"/>
-        <v>-25.985562019762796</v>
+        <v>-4.3980953705002697E-3</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="3"/>
-        <v>-19.997674529696276</v>
+        <v>-1.0999414705602853E-3</v>
       </c>
       <c r="N19" s="31">
         <f t="shared" si="3"/>
-        <v>-12.261211428175207</v>
+        <v>-1.7600935715184984E-4</v>
       </c>
       <c r="O19" s="31">
         <f t="shared" si="3"/>
-        <v>-6.9529414828150191</v>
+        <v>-4.4003008033814247E-5</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="3"/>
-        <v>-5.2399712101321603</v>
+        <v>-2.6037336716534878E-5</v>
       </c>
       <c r="Q19" s="39">
         <f t="shared" si="3"/>
-        <v>-4.0586497829380193</v>
+        <v>-1.7188728077354363E-5</v>
       </c>
       <c r="R19" s="39">
         <f t="shared" si="3"/>
-        <v>-3.4665830880308435</v>
+        <v>-1.3581222887220424E-5</v>
       </c>
       <c r="S19" s="35">
         <f t="shared" si="3"/>
-        <v>-3.0080982687946327</v>
+        <v>-3.00809826879463</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" si="3"/>
-        <v>-2.9873623417005444</v>
+        <v>-1.1000793806930447E-5</v>
       </c>
       <c r="U19" s="39">
         <f t="shared" si="3"/>
-        <v>-2.5953162274618014</v>
+        <v>-9.0915671273007435E-6</v>
       </c>
       <c r="V19" s="39">
         <f t="shared" si="3"/>
-        <v>-2.1305463398327835</v>
+        <v>-7.0405112456677345E-6</v>
       </c>
       <c r="W19" s="39">
         <f t="shared" si="3"/>
-        <v>-1.582907316046497</v>
+        <v>-4.8892451317937453E-6</v>
       </c>
       <c r="X19" s="31">
         <f t="shared" si="3"/>
-        <v>-0.63826436508185269</v>
+        <v>-1.7601288817672153E-6</v>
       </c>
       <c r="Y19" s="31">
         <f t="shared" si="3"/>
-        <v>-0.16857325574029869</v>
+        <v>-4.4003228705235239E-7</v>
       </c>
       <c r="Z19" s="31">
         <f t="shared" si="3"/>
-        <v>-4.2760701366124469E-2</v>
+        <v>-1.1000807594131406E-7</v>
       </c>
       <c r="AA19" s="31">
         <f t="shared" si="3"/>
-        <v>-6.8700681187769397E-3</v>
+        <v>-1.7601292597005987E-8</v>
       </c>
       <c r="AB19" s="31">
         <f t="shared" si="3"/>
-        <v>-1.7185361454745396E-3</v>
+        <v>-4.400323628071386E-9</v>
       </c>
       <c r="AC19" s="31">
         <f t="shared" si="3"/>
-        <v>-4.2969779411336913E-4</v>
+        <v>-1.1000806657269896E-9</v>
       </c>
       <c r="AD19" s="31">
         <f t="shared" si="3"/>
-        <v>-6.8754504127915749E-5</v>
+        <v>-1.7601290650695556E-10</v>
       </c>
       <c r="AE19" s="31">
         <f t="shared" si="3"/>
-        <v>-1.7188728077354363E-5</v>
+        <v>-4.4003226626404508E-11</v>
       </c>
       <c r="AF19" s="31">
         <f t="shared" si="3"/>
-        <v>-4.297188396787849E-6</v>
+        <v>-1.1001047738446867E-11</v>
       </c>
       <c r="AG19" s="31">
         <f t="shared" si="3"/>
-        <v>-6.8755042974751616E-7</v>
+        <v>-1.7598976264599274E-12</v>
       </c>
       <c r="AH19" s="31">
         <f t="shared" si="3"/>
-        <v>-1.718876175227359E-7</v>
+        <v>-4.3973332474831004E-13</v>
       </c>
       <c r="AI19" s="31">
         <f t="shared" si="3"/>
-        <v>-4.2971905508281326E-8</v>
+        <v>-1.0993333118707543E-13</v>
       </c>
       <c r="AJ19" s="31">
         <f t="shared" si="3"/>
-        <v>-6.8755053684888492E-9</v>
+        <v>-1.7357894397959187E-14</v>
       </c>
       <c r="AK19" s="31">
         <f t="shared" si="3"/>
-        <v>-1.7188761005301154E-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+        <v>-3.8573098662131493E-15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="6">
         <f t="shared" ref="B20:AK20" si="4">ATAN((B17/B16))/PI()*180</f>
-        <v>89.99999971199999</v>
+        <v>89.99982</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="4"/>
-        <v>89.997120000002425</v>
+        <v>88.200591825838373</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
-        <v>89.994240000019403</v>
+        <v>86.404726220131835</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="4"/>
-        <v>89.985600000303208</v>
+        <v>81.072945131040072</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="4"/>
-        <v>89.971200002425547</v>
+        <v>72.559405509488144</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="4"/>
-        <v>89.942400019404431</v>
+        <v>57.858092364657942</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="4"/>
-        <v>89.856000303193099</v>
+        <v>32.481636590529753</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="4"/>
-        <v>89.712002425517213</v>
+        <v>17.656787151412857</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="4"/>
-        <v>89.424019403255244</v>
+        <v>9.04306107903769</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="4"/>
-        <v>88.560303079390579</v>
+        <v>3.6426468877225746</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="4"/>
-        <v>87.122421883530649</v>
+        <v>1.823165720814139</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="4"/>
-        <v>84.259287608378798</v>
+        <v>0.91181366961382948</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="4"/>
-        <v>75.892197628409875</v>
+        <v>0.3647513335607569</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="4"/>
-        <v>63.313389897784695</v>
+        <v>0.18237751460101728</v>
       </c>
       <c r="P20" s="43">
         <f t="shared" si="4"/>
-        <v>56.837340476554466</v>
+        <v>0.14029058929598176</v>
       </c>
       <c r="Q20" s="43">
         <f t="shared" si="4"/>
-        <v>51.192098696281832</v>
+        <v>0.1139861812173877</v>
       </c>
       <c r="R20" s="43">
         <f t="shared" si="4"/>
-        <v>47.861876584290201</v>
+        <v>0.10132107802543457</v>
       </c>
       <c r="S20" s="41">
         <f t="shared" si="4"/>
@@ -7931,78 +7916,78 @@
       </c>
       <c r="T20" s="6">
         <f t="shared" si="4"/>
-        <v>44.848292867834715</v>
+        <v>9.1188988283354117E-2</v>
       </c>
       <c r="U20" s="42">
         <f t="shared" si="4"/>
-        <v>42.122706315489388</v>
+        <v>8.2899092405511396E-2</v>
       </c>
       <c r="V20" s="42">
         <f t="shared" si="4"/>
-        <v>38.511887253966577</v>
+        <v>7.2951212801149676E-2</v>
       </c>
       <c r="W20" s="42">
         <f t="shared" si="4"/>
-        <v>33.550172590822321</v>
+        <v>6.0792687372124177E-2</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="4"/>
-        <v>21.696983971540053</v>
+        <v>3.6475621183571311E-2</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="4"/>
-        <v>11.251725724946702</v>
+        <v>1.82378124396619E-2</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="4"/>
-        <v>5.6806298194676073</v>
+        <v>9.1189064508155337E-3</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="4"/>
-        <v>2.2785247286219956</v>
+        <v>3.6475626061964871E-3</v>
       </c>
       <c r="AB20" s="6">
         <f t="shared" si="4"/>
-        <v>1.1397129710778837</v>
+        <v>1.8237813049461213E-3</v>
       </c>
       <c r="AC20" s="6">
         <f t="shared" si="4"/>
-        <v>0.56991286152911402</v>
+        <v>9.1189065270404484E-4</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="4"/>
-        <v>0.22797146016189188</v>
+        <v>3.6475626110748832E-4</v>
       </c>
       <c r="AE20" s="6">
         <f t="shared" si="4"/>
-        <v>0.11398618121738768</v>
+        <v>1.8237813055559205E-4</v>
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="4"/>
-        <v>5.6993147001251208E-2</v>
+        <v>9.1189065278027013E-5</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="4"/>
-        <v>2.2797265116481322E-2</v>
+        <v>3.6475626111236674E-5</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="4"/>
-        <v>1.1398633009382403E-2</v>
+        <v>1.8237813055620184E-5</v>
       </c>
       <c r="AI20" s="6">
         <f t="shared" si="4"/>
-        <v>5.6993165610839253E-3</v>
+        <v>9.1189065278103239E-6</v>
       </c>
       <c r="AJ20" s="6">
         <f t="shared" si="4"/>
-        <v>2.2797266307495547E-3</v>
+        <v>3.6475626111241552E-6</v>
       </c>
       <c r="AK20" s="6">
         <f t="shared" si="4"/>
-        <v>1.1398633158259191E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1.8237813055620791E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -8022,7 +8007,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -8042,7 +8027,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="1:37" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>34</v>
       </c>
@@ -8065,7 +8050,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -8085,7 +8070,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>35</v>
       </c>
@@ -8109,7 +8094,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -8129,7 +8114,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -8149,7 +8134,7 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -8169,7 +8154,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -8189,7 +8174,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8209,7 +8194,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -8229,7 +8214,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -8249,7 +8234,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -8269,7 +8254,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -8289,7 +8274,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -8309,7 +8294,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -8329,7 +8314,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -8349,7 +8334,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -8369,7 +8354,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -8389,7 +8374,7 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -8409,7 +8394,7 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -8429,7 +8414,7 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -8449,32 +8434,32 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -8494,7 +8479,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -8514,7 +8499,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -8534,7 +8519,7 @@
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -8554,7 +8539,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -8574,7 +8559,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8595,7 +8580,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -8616,7 +8601,7 @@
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -8637,11 +8622,11 @@
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -8653,49 +8638,49 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="1"/>
     </row>
@@ -8721,15 +8706,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8737,7 +8722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8745,10 +8730,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -8793,7 +8778,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8850,10 +8835,10 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8862,7 +8847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -8875,7 +8860,7 @@
         <v>1.0000000000000002E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -8890,16 +8875,16 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -8956,7 +8941,7 @@
         <v>39478418.604357436</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8971,7 +8956,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -9028,7 +9013,7 @@
         <v>2.5330295268960566E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -9085,7 +9070,7 @@
         <v>-1.5915493906045364E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -9100,7 +9085,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -9157,7 +9142,7 @@
         <v>1.5915494107617448E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -9214,7 +9199,7 @@
         <v>-75.963597477170367</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -9271,7 +9256,7 @@
         <v>-89.990881093549191</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -9280,7 +9265,7 @@
         <v>1591549.4309189534</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -9291,49 +9276,49 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="1"/>
     </row>
@@ -9354,18 +9339,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9373,7 +9358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -9381,10 +9366,10 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -9432,7 +9417,7 @@
         <v>100000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9493,10 +9478,10 @@
         <v>1E+22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -9505,7 +9490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -9518,7 +9503,7 @@
         <v>1.0000000000000002E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -9533,16 +9518,16 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -9603,7 +9588,7 @@
         <v>3947841761.4357438</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9619,7 +9604,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -9680,7 +9665,7 @@
         <v>0.99999999974669707</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -9741,7 +9726,7 @@
         <v>1.5915494305158091E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -9757,7 +9742,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -9818,7 +9803,7 @@
         <v>0.99999999987334853</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -9879,7 +9864,7 @@
         <v>-1.1000806657269896E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -9940,7 +9925,7 @@
         <v>9.1189065270404484E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -9949,7 +9934,7 @@
         <v>1591549.4309189534</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -9960,94 +9945,94 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
   </sheetData>
@@ -10067,14 +10052,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -10086,7 +10071,7 @@
       </c>
       <c r="D3" s="50"/>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -10096,12 +10081,12 @@
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
     </row>
-    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
@@ -10114,7 +10099,7 @@
       </c>
       <c r="E7" s="49"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
